--- a/results/DecisionTreeClassifier_randomsearch-estimator_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-estimator_df.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5387144812980054</v>
+        <v>0.5381987298234439</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -542,10 +542,10 @@
         <v>42</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7121122738459804</v>
+        <v>0.7114261479768182</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 1 0 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1]</t>
+          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1]</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5236397472795373</v>
+        <v>0.5083524027459955</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7275612534486958</v>
+        <v>0.6799158748411306</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6967109424414927</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -632,7 +632,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 0 1 0 0 1 0 1 0 1 1 1 1 1 1 1 1]</t>
+          <t>[1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1]</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4535291717077287</v>
+        <v>0.511332037878814</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5797953697937545</v>
+        <v>0.5421589494097233</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.5230189578658997</v>
+        <v>0.5538242065587602</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7013753438359589</v>
+        <v>0.733242697647592</v>
       </c>
       <c r="H6" t="n">
         <v>0.6666666666666666</v>
@@ -866,7 +866,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 1 0 0 0 1 0 1 1 1]</t>
+          <t>[0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1]</t>
         </is>
       </c>
     </row>

--- a/results/DecisionTreeClassifier_randomsearch-estimator_df.xlsx
+++ b/results/DecisionTreeClassifier_randomsearch-estimator_df.xlsx
@@ -506,7 +506,8 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5c8cc1ba60&gt;),
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced', max_depth=4,
                                         max_features='sqrt',
@@ -517,7 +518,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5e8c832610&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -531,7 +532,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5381987298234439</v>
+        <v>0.5405139563626574</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -539,22 +540,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7114261479768182</v>
+        <v>0.6863482744004518</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5</v>
+        <v>0.4085081585081585</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 1 0 1 1]</t>
+          <t>[0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 1 0 1 1 1 1 1 0 0]</t>
         </is>
       </c>
     </row>
@@ -563,6 +564,85 @@
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta_PV',
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5e8c832580&gt;),
+                ('model',
+                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
+                                        max_features='sqrt',
+                                        min_samples_leaf=11,
+                                        min_samples_split=13,
+                                        random_state=42))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5e8c84d220&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5332457799226544</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.6857825567502988</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2879710144927536</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[1 1 0 0 0 1 1 1 0 1 1 1 1 1 0 1 0 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -593,7 +673,7 @@
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -608,39 +688,39 @@
                                   'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.5083524027459955</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="n">
+        <v>0.5902163898155958</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Random</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.6799158748411306</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[1 1 1 0 1 1 0 0 0 0 1 1 1 1 1 1 0 0 1 1 0 0 0 1]</t>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7136080670885425</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5648148148148149</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0]</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -671,7 +751,7 @@
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
@@ -686,39 +766,39 @@
                                   'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>0.511332037878814</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" t="n">
+        <v>0.4858341144753852</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Random</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>23</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6819285466527922</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.6458333333333334</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 1 1 1 1 1 1 0 1 1 1 0 0 1 1 1 1 0 1]</t>
+      <c r="F5" t="n">
+        <v>42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7307474641939838</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3760869565217391</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 1 1]</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>Pipeline(steps=[('scaler',
                  ColumnTransformer(n_jobs=-1, remainder='passthrough',
@@ -740,7 +820,8 @@
                                                    'MT_V', 'PeakV_HR',
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5e8cb2fc40&gt;),
                 ('model',
                  DecisionTreeClassifier(class_weight='balanced', max_depth=4,
                                         max_features='sqrt',
@@ -749,9 +830,9 @@
                                         random_state=42))])</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5e8cb2fb20&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -764,86 +845,8 @@
                                   'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.5421589494097233</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Random</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>99</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7435179549604384</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.4207459207459207</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 1 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler',
-                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                                   transformers=[('StandardScaler',
-                                                  StandardScaler(),
-                                                  ['AE_HR', 'AE_V',
-                                                   'AbsOffAxis_HR',
-                                                   'AbsOffAxis_V',
-                                                   'AbsOnAxis_HR',
-                                                   'AbsOnAxis_V', 'BallPath_HR',
-                                                   'BallPath_V', 'CMT_HR',
-                                                   'CMT_V', 'Corrective_HR',
-                                                   'Corrective_V', 'Delta_AE',
-                                                   'Delta_Fullpath', 'Delta_MT',
-                                                   'Delta_OffAxis',
-                                                   'Delta_OnAxis', 'Delta_PV',
-                                                   'Delta_RT', 'FullPath_HR',
-                                                   'FullPath_V', 'MT_HR',
-                                                   'MT_V', 'PeakV_HR',
-                                                   'PeakV_V', 'RT_HR', 'RT_V',
-                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
-                ('selector', RandomUnderSampler(random_state=42)),
-                ('model',
-                 DecisionTreeClassifier(class_weight='balanced', max_depth=4,
-                                        max_features='sqrt',
-                                        min_samples_leaf=11,
-                                        min_samples_split=13,
-                                        random_state=42))])</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>{'selector': RandomUnderSampler(random_state=42), 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
-                  transformers=[('StandardScaler', StandardScaler(),
-                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
-                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
-                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
-                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
-                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
-                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
-                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
-                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__min_samples_split': 13, 'model__min_samples_leaf': 11, 'model__max_features': 'sqrt', 'model__max_depth': 4, 'model__criterion': 'gini', 'model__class_weight': 'balanced'}</t>
-        </is>
-      </c>
       <c r="D6" t="n">
-        <v>0.5538242065587602</v>
+        <v>0.564277385131134</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -854,19 +857,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.733242697647592</v>
+        <v>0.6424422197503399</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 1 0 0 0 1 1 1 0 0 1 1 1 0 1 0 1 1 0 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 0 1 1]</t>
         </is>
       </c>
     </row>
